--- a/Instrumentacion/HORARIOS INSTRUMENTACION_2023.xlsx
+++ b/Instrumentacion/HORARIOS INSTRUMENTACION_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OmairaTapias\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B65DAE1-2B29-4AFF-9957-7C5341176C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BDFE57B-AE5B-4DE7-BA4D-BD74B602AB21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{52CD51E4-B5E7-4EE9-97B5-A271D95154C6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{52CD51E4-B5E7-4EE9-97B5-A271D95154C6}"/>
   </bookViews>
   <sheets>
     <sheet name="I" sheetId="1" r:id="rId1"/>
@@ -202,9 +202,6 @@
     <t>CN101(01) INSTRUMENTACION</t>
   </si>
   <si>
-    <t>SC303(02) INSTRUMENTACION</t>
-  </si>
-  <si>
     <t>403C</t>
   </si>
   <si>
@@ -220,9 +217,6 @@
     <t>204C</t>
   </si>
   <si>
-    <t>SC303(02)</t>
-  </si>
-  <si>
     <t>401C</t>
   </si>
   <si>
@@ -353,6 +347,12 @@
   </si>
   <si>
     <t>IQ240(01)</t>
+  </si>
+  <si>
+    <t>SC303(05)</t>
+  </si>
+  <si>
+    <t>SC303(05) INSTRUMENTACION</t>
   </si>
 </sst>
 </file>
@@ -915,161 +915,161 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1387,90 +1387,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB25AAA-D2BB-4E62-8CC7-02DE57045219}">
   <dimension ref="A2:R22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5:O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1"/>
-    <col min="11" max="11" width="8.21875" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" customWidth="1"/>
-    <col min="13" max="13" width="6.21875" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" customWidth="1"/>
-    <col min="16" max="16" width="8.109375" customWidth="1"/>
-    <col min="17" max="17" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" customWidth="1"/>
+    <col min="17" max="17" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.42578125" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="O3" s="46" t="s">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O3" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="46" t="s">
+      <c r="P3" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="48" t="s">
+      <c r="Q3" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="46" t="s">
+      <c r="R3" s="90" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="47"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="91"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="46" t="s">
+      <c r="M5" s="90" t="s">
         <v>18</v>
       </c>
       <c r="O5" s="43" t="s">
@@ -1486,20 +1486,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="87"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
       <c r="O6" s="44" t="s">
         <v>29</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1521,13 +1521,13 @@
         <v>49</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>50</v>
@@ -1538,10 +1538,10 @@
       <c r="H7" s="16"/>
       <c r="I7" s="5"/>
       <c r="J7" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -1558,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1566,13 +1566,13 @@
         <v>49</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>50</v>
@@ -1583,10 +1583,10 @@
       <c r="H8" s="31"/>
       <c r="I8" s="6"/>
       <c r="J8" s="33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -1603,7 +1603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>53</v>
       </c>
       <c r="I9" s="42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J9" s="33" t="s">
         <v>42</v>
@@ -1644,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1656,7 +1656,7 @@
         <v>53</v>
       </c>
       <c r="I10" s="42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J10" s="33" t="s">
         <v>42</v>
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1688,16 +1688,16 @@
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
       <c r="F11" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>53</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J11" s="33" t="s">
         <v>42</v>
@@ -1720,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>11</v>
       </c>
@@ -1729,10 +1729,10 @@
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="7"/>
@@ -1745,7 +1745,7 @@
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>12</v>
       </c>
@@ -1766,7 +1766,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1787,17 +1787,17 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -1811,17 +1811,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -1835,15 +1835,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1860,18 +1860,18 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="O17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="35" t="s">
         <v>62</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>63</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
@@ -1888,10 +1888,10 @@
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
       <c r="O18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>6</v>
       </c>
@@ -1912,7 +1912,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1929,7 +1929,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1946,7 +1946,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>4</v>
       </c>
@@ -1965,6 +1965,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="O3:O4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -1972,16 +1982,6 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1992,115 +1992,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21AB377-5475-4309-827B-E5C4DEE4CA98}">
   <dimension ref="A3:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="O6" sqref="O6:O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="23.109375" style="21" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" style="25" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="25" customWidth="1"/>
     <col min="10" max="10" width="21" style="21" customWidth="1"/>
     <col min="11" max="11" width="10" style="21" customWidth="1"/>
     <col min="12" max="12" width="19" style="21" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" style="21" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" style="21"/>
-    <col min="15" max="15" width="7.77734375" style="21" customWidth="1"/>
-    <col min="16" max="16" width="5.33203125" style="21" customWidth="1"/>
-    <col min="17" max="17" width="6.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.88671875" style="21"/>
+    <col min="13" max="13" width="10.140625" style="21" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="21"/>
+    <col min="15" max="15" width="7.7109375" style="21" customWidth="1"/>
+    <col min="16" max="16" width="5.28515625" style="21" customWidth="1"/>
+    <col min="17" max="17" width="6.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="46" t="s">
+      <c r="O4" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="46" t="s">
+      <c r="P4" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="46" t="s">
+      <c r="R4" s="90" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="52"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="47"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="87"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="91"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -2108,13 +2108,13 @@
       <c r="G6" s="22"/>
       <c r="H6" s="23"/>
       <c r="I6" s="26"/>
-      <c r="J6" s="61" t="s">
-        <v>77</v>
+      <c r="J6" s="51" t="s">
+        <v>75</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="61"/>
+        <v>59</v>
+      </c>
+      <c r="L6" s="51"/>
       <c r="M6" s="22"/>
       <c r="O6" s="43" t="s">
         <v>35</v>
@@ -2129,45 +2129,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>47</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G7" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="62" t="s">
-        <v>77</v>
-      </c>
       <c r="K7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="62" t="s">
-        <v>107</v>
+        <v>59</v>
+      </c>
+      <c r="L7" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O7" s="44" t="s">
         <v>36</v>
@@ -2182,45 +2182,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>47</v>
       </c>
       <c r="F8" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="62" t="s">
-        <v>78</v>
-      </c>
       <c r="K8" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="62" t="s">
-        <v>107</v>
+        <v>59</v>
+      </c>
+      <c r="L8" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O8" s="44" t="s">
         <v>37</v>
@@ -2235,41 +2235,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="19"/>
       <c r="D9" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>47</v>
       </c>
       <c r="F9" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9" s="62" t="s">
-        <v>107</v>
+      <c r="K9" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O9" s="44" t="s">
         <v>38</v>
@@ -2284,41 +2284,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="19"/>
       <c r="D10" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>47</v>
       </c>
       <c r="F10" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="K10" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="62" t="s">
-        <v>82</v>
+      <c r="K10" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="52" t="s">
+        <v>80</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O10" s="44" t="s">
         <v>39</v>
@@ -2333,41 +2333,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="69" t="s">
-        <v>107</v>
+        <v>97</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>105</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="62" t="s">
-        <v>82</v>
+      <c r="L11" s="52" t="s">
+        <v>80</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O11" s="44" t="s">
         <v>40</v>
@@ -2382,35 +2382,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="73" t="s">
-        <v>59</v>
+        <v>97</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>58</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
       <c r="H12" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="I12" s="81" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="64" t="s">
         <v>46</v>
       </c>
       <c r="K12" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="75"/>
+      <c r="L12" s="65"/>
       <c r="M12" s="22"/>
-      <c r="O12" s="97" t="s">
+      <c r="O12" s="85" t="s">
         <v>41</v>
       </c>
       <c r="P12" s="14">
@@ -2423,136 +2423,136 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="76" t="s">
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="79" t="s">
+      <c r="B13" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="69" t="s">
         <v>47</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="58" t="s">
+      <c r="H13" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="86" t="s">
+      <c r="I13" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="64" t="s">
+      <c r="J13" s="54" t="s">
         <v>46</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L13" s="80"/>
+      <c r="L13" s="70"/>
       <c r="M13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="10"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="90" t="s">
-        <v>84</v>
+      <c r="B14" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="80" t="s">
+        <v>82</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="72" t="s">
+      <c r="F14" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="60" t="s">
+      <c r="I14" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="61" t="s">
+      <c r="J14" s="51" t="s">
         <v>45</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="87" t="s">
-        <v>71</v>
+      <c r="B15" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>69</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="20" t="s">
         <v>81</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>83</v>
       </c>
       <c r="H15" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="60" t="s">
+      <c r="I15" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="62" t="s">
+      <c r="J15" s="52" t="s">
         <v>45</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="87" t="s">
-        <v>72</v>
+      <c r="B16" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>70</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="65" t="s">
-        <v>75</v>
+        <v>82</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>73</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>48</v>
@@ -2563,65 +2563,65 @@
       <c r="H16" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="60" t="s">
+      <c r="I16" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="62" t="s">
-        <v>108</v>
+      <c r="J16" s="52" t="s">
+        <v>106</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="88" t="s">
-        <v>73</v>
+      <c r="B17" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>71</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="15"/>
       <c r="F17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="83" t="s">
+      <c r="G17" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="69"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="84" t="s">
-        <v>108</v>
+      <c r="H17" s="59"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="74" t="s">
+        <v>106</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L17" s="15"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="22"/>
-      <c r="C18" s="85"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="8"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="23"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="74"/>
+      <c r="J18" s="64"/>
       <c r="K18" s="22"/>
-      <c r="L18" s="75"/>
+      <c r="L18" s="65"/>
       <c r="M18" s="22"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -2633,12 +2633,12 @@
       <c r="G19" s="9"/>
       <c r="H19" s="24"/>
       <c r="I19" s="20"/>
-      <c r="J19" s="62"/>
+      <c r="J19" s="52"/>
       <c r="K19" s="9"/>
       <c r="L19" s="12"/>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,12 +2650,12 @@
       <c r="G20" s="9"/>
       <c r="H20" s="24"/>
       <c r="I20" s="20"/>
-      <c r="J20" s="62"/>
+      <c r="J20" s="52"/>
       <c r="K20" s="9"/>
       <c r="L20" s="12"/>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
@@ -2665,71 +2665,71 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="58"/>
+      <c r="H21" s="48"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="64"/>
+      <c r="J21" s="54"/>
       <c r="K21" s="10"/>
       <c r="L21" s="13"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="51" t="s">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="46" t="s">
+      <c r="F24" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="93" t="s">
+      <c r="H24" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="53" t="s">
+      <c r="I24" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="93" t="s">
+      <c r="J24" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="46" t="s">
+      <c r="K24" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="48" t="s">
+      <c r="L24" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="46" t="s">
+      <c r="M24" s="90" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="52"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="47"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="87"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="91"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>1</v>
       </c>
@@ -2739,289 +2739,289 @@
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="61"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="51"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="61"/>
+      <c r="L26" s="51"/>
       <c r="M26" s="22"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="19"/>
       <c r="D27" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E27" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" s="62"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="62"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="52"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="62"/>
+      <c r="L27" s="52"/>
       <c r="M27" s="9"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="19"/>
       <c r="D28" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E28" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="I28" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="G28" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="H28" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="I28" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="J28" s="62"/>
+      <c r="J28" s="52"/>
       <c r="K28" s="29"/>
-      <c r="L28" s="62"/>
+      <c r="L28" s="52"/>
       <c r="M28" s="9"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="19"/>
       <c r="D29" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="F29" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="H29" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="I29" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="J29" s="62"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="62"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="52"/>
       <c r="M29" s="9"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="18"/>
       <c r="D30" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="19" t="s">
-        <v>90</v>
-      </c>
       <c r="F30" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G30" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" s="62"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="K30" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="L30" s="62"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="K30" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="52"/>
       <c r="M30" s="9"/>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B31" s="14"/>
-      <c r="C31" s="83"/>
+      <c r="C31" s="73"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="G31" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" s="84"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="74"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="K31" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="L31" s="84"/>
+      <c r="J31" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="K31" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="L31" s="74"/>
       <c r="M31" s="14"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
-      <c r="E32" s="73"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="74"/>
+      <c r="H32" s="64"/>
       <c r="I32" s="22"/>
-      <c r="J32" s="74"/>
+      <c r="J32" s="64"/>
       <c r="K32" s="26"/>
-      <c r="L32" s="74"/>
+      <c r="L32" s="64"/>
       <c r="M32" s="22"/>
     </row>
-    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="76" t="s">
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="78" t="s">
-        <v>63</v>
+      <c r="B33" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>62</v>
       </c>
       <c r="D33" s="10"/>
-      <c r="E33" s="79"/>
+      <c r="E33" s="69"/>
       <c r="F33" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="H33" s="64"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="64"/>
+        <v>94</v>
+      </c>
+      <c r="H33" s="54"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="54"/>
       <c r="K33" s="10"/>
-      <c r="L33" s="96"/>
+      <c r="L33" s="84"/>
       <c r="M33" s="10"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="71" t="s">
-        <v>87</v>
+      <c r="B34" s="61" t="s">
+        <v>85</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="G34" s="57" t="s">
+      <c r="F34" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="H34" s="61"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="61"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="51"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="61"/>
+      <c r="L34" s="51"/>
       <c r="M34" s="8"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="18"/>
       <c r="F35" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G35" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H35" s="62"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="62"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="52"/>
       <c r="K35" s="9"/>
-      <c r="L35" s="62"/>
+      <c r="L35" s="52"/>
       <c r="M35" s="9"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="18"/>
       <c r="D36" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F36" s="9"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="62"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="52"/>
       <c r="K36" s="9"/>
-      <c r="L36" s="62"/>
+      <c r="L36" s="52"/>
       <c r="M36" s="9"/>
     </row>
-    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="14"/>
-      <c r="C37" s="83"/>
+      <c r="C37" s="73"/>
       <c r="D37" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G37" s="92"/>
-      <c r="H37" s="84"/>
+        <v>63</v>
+      </c>
+      <c r="G37" s="82"/>
+      <c r="H37" s="74"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="84"/>
+      <c r="J37" s="74"/>
       <c r="K37" s="10"/>
-      <c r="L37" s="84"/>
+      <c r="L37" s="74"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="22"/>
-      <c r="C38" s="85"/>
+      <c r="C38" s="75"/>
       <c r="D38" s="22"/>
       <c r="E38" s="14"/>
       <c r="F38" s="22"/>
@@ -3033,7 +3033,7 @@
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>5</v>
       </c>
@@ -3050,7 +3050,7 @@
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>3</v>
       </c>
@@ -3067,7 +3067,7 @@
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
     </row>
-    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>4</v>
       </c>
@@ -3084,64 +3084,64 @@
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="51" t="s">
+    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="46" t="s">
+      <c r="E44" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="46" t="s">
+      <c r="G44" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="46" t="s">
+      <c r="H44" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="I44" s="53" t="s">
+      <c r="I44" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="J44" s="46" t="s">
+      <c r="J44" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="K44" s="46" t="s">
+      <c r="K44" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="L44" s="46" t="s">
+      <c r="L44" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="M44" s="46" t="s">
+      <c r="M44" s="90" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="52"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="50"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="87"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="91"/>
+      <c r="F45" s="91"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="91"/>
+      <c r="I45" s="94"/>
+      <c r="J45" s="91"/>
+      <c r="K45" s="91"/>
+      <c r="L45" s="91"/>
+      <c r="M45" s="92"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>1</v>
       </c>
@@ -3153,12 +3153,12 @@
       <c r="G46" s="22"/>
       <c r="H46" s="23"/>
       <c r="I46" s="26"/>
-      <c r="J46" s="61"/>
+      <c r="J46" s="51"/>
       <c r="K46" s="8"/>
-      <c r="L46" s="61"/>
+      <c r="L46" s="51"/>
       <c r="M46" s="22"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
@@ -3169,13 +3169,13 @@
       <c r="F47" s="20"/>
       <c r="G47" s="19"/>
       <c r="H47" s="24"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="62"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="52"/>
       <c r="K47" s="9"/>
-      <c r="L47" s="62"/>
+      <c r="L47" s="52"/>
       <c r="M47" s="9"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3185,14 +3185,14 @@
       <c r="E48" s="19"/>
       <c r="F48" s="20"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="62"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="52"/>
       <c r="K48" s="29"/>
-      <c r="L48" s="62"/>
+      <c r="L48" s="52"/>
       <c r="M48" s="9"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>9</v>
       </c>
@@ -3202,14 +3202,14 @@
       <c r="E49" s="19"/>
       <c r="F49" s="20"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="62"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="52"/>
       <c r="M49" s="9"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>10</v>
       </c>
@@ -3220,89 +3220,89 @@
       <c r="F50" s="20"/>
       <c r="G50" s="19"/>
       <c r="H50" s="24"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="63"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="62"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="52"/>
       <c r="M50" s="9"/>
     </row>
-    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="14"/>
-      <c r="C51" s="83"/>
+      <c r="C51" s="73"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="69"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="59"/>
       <c r="I51" s="14"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="66"/>
-      <c r="L51" s="84"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="74"/>
       <c r="M51" s="14"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
-      <c r="E52" s="73"/>
+      <c r="E52" s="63"/>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
       <c r="H52" s="23"/>
       <c r="I52" s="22"/>
-      <c r="J52" s="74"/>
+      <c r="J52" s="64"/>
       <c r="K52" s="26"/>
-      <c r="L52" s="74"/>
+      <c r="L52" s="64"/>
       <c r="M52" s="22"/>
     </row>
-    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="76" t="s">
+    <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="77"/>
-      <c r="C53" s="78"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="68"/>
       <c r="D53" s="10"/>
-      <c r="E53" s="79"/>
+      <c r="E53" s="69"/>
       <c r="F53" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="H53" s="58"/>
-      <c r="I53" s="86"/>
-      <c r="J53" s="64"/>
+        <v>102</v>
+      </c>
+      <c r="H53" s="48"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="54"/>
       <c r="K53" s="10"/>
-      <c r="L53" s="96"/>
+      <c r="L53" s="84"/>
       <c r="M53" s="10"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="71"/>
+      <c r="B54" s="61"/>
       <c r="C54" s="19"/>
       <c r="D54" s="8"/>
       <c r="E54" s="18"/>
-      <c r="F54" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="G54" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="H54" s="72"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="61"/>
+      <c r="F54" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="G54" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H54" s="62"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="51"/>
       <c r="K54" s="8"/>
-      <c r="L54" s="61"/>
+      <c r="L54" s="51"/>
       <c r="M54" s="8"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>15</v>
       </c>
@@ -3311,19 +3311,19 @@
       <c r="D55" s="9"/>
       <c r="E55" s="18"/>
       <c r="F55" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H55" s="24"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="62"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="52"/>
       <c r="K55" s="9"/>
-      <c r="L55" s="62"/>
+      <c r="L55" s="52"/>
       <c r="M55" s="9"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>16</v>
       </c>
@@ -3334,35 +3334,35 @@
       <c r="F56" s="9"/>
       <c r="G56" s="18"/>
       <c r="H56" s="24"/>
-      <c r="I56" s="60"/>
-      <c r="J56" s="62"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="52"/>
       <c r="K56" s="9"/>
-      <c r="L56" s="62"/>
+      <c r="L56" s="52"/>
       <c r="M56" s="9"/>
     </row>
-    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B57" s="14"/>
-      <c r="C57" s="83"/>
+      <c r="C57" s="73"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="69"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="59"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="84"/>
+      <c r="J57" s="74"/>
       <c r="K57" s="10"/>
-      <c r="L57" s="84"/>
+      <c r="L57" s="74"/>
       <c r="M57" s="10"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="22"/>
-      <c r="C58" s="85"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
@@ -3374,7 +3374,7 @@
       <c r="L58" s="22"/>
       <c r="M58" s="22"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3391,7 +3391,7 @@
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3408,7 +3408,7 @@
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
     </row>
-    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>4</v>
       </c>
@@ -3427,19 +3427,24 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -3452,24 +3457,19 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
